--- a/biology/Zoologie/Cornufer_guentheri/Cornufer_guentheri.xlsx
+++ b/biology/Zoologie/Cornufer_guentheri/Cornufer_guentheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornufer guentheri, la Grenouille cornue des Salomon, est une espèce d'amphibiens de la famille des Ceratobatrachidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornufer guentheri, la Grenouille cornue des Salomon, est une espèce d'amphibiens de la famille des Ceratobatrachidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de l'archipel des Salomon[1]. Elle se rencontre jusqu'à 700 m d'altitude :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de l'archipel des Salomon. Elle se rencontre jusqu'à 700 m d'altitude :
 aux Salomon à Choiseul, en Nouvelle-Géorgie, à Santa Isabel, à Malaita et à Guadalcanal ;
 en Papouasie-Nouvelle-Guinée à Buka et à Bougainville.</t>
         </is>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grenouille cornue des Salomon a une tête triangulaire aplatie, un museau pointu et des "cornes" au-dessus des yeux. Elle mesure de 5 à 8 cm de long[2].
-Le mâle holotype mesure 85 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grenouille cornue des Salomon a une tête triangulaire aplatie, un museau pointu et des "cornes" au-dessus des yeux. Elle mesure de 5 à 8 cm de long.
+Le mâle holotype mesure 85 mm.
 Elle se cache facilement dans les feuilles mortes.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Albert Günther[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Albert Günther.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornufer guentheri Boulenger, 1882 est un synonyme de Platymantis guentheri (Boulenger, 1882).
 </t>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boulenger, 1884 : Diagnoses of new reptiles and batrachians from the Solomon Islands, collected and presented to the British Museum by H. B. Guppy, Esq., M.B., H.M.S. Lark. Proceedings of the Zoological Society of London, vol. 1884, p. 210-213 (texte intégral).</t>
         </is>
